--- a/nr-add-changelog/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:11:50+00:00</t>
+    <t>2025-11-18T17:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-changelog/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:12:23+00:00</t>
+    <t>2025-11-18T17:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -430,7 +430,7 @@
     <t>RelatedPerson.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -505,7 +505,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -548,7 +548,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -687,7 +687,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0)
 </t>
   </si>
   <si>
@@ -722,7 +722,7 @@
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -747,7 +747,7 @@
     <t>Rôle de la personne</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:Role.id</t>
@@ -966,7 +966,7 @@
     <t>Relation de la personne</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:RelationType.id</t>
@@ -1008,7 +1008,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -1046,7 +1046,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1172,7 +1172,7 @@
     <t>Civilités des personnes physiques du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J78-Civilite-RASS/FHIR/JDV-J78-Civilite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J78-Civilite-RASS/FHIR/JDV-J78-Civilite-RASS|20221216120000</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1196,7 +1196,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1236,7 +1236,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1305,7 +1305,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1781,7 +1781,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.38671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1796,7 +1796,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="91.87890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
